--- a/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>102837</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85053</v>
+        <v>85111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121312</v>
+        <v>121266</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2152127821621242</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1779962485988616</v>
+        <v>0.17811705272443</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2538768749495648</v>
+        <v>0.2537821213269161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -765,19 +765,19 @@
         <v>73058</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58756</v>
+        <v>58582</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90154</v>
+        <v>88540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1357684287798749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1091914127437397</v>
+        <v>0.1088672888125449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.167540119397366</v>
+        <v>0.1645398334428989</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>176</v>
@@ -786,19 +786,19 @@
         <v>175894</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152348</v>
+        <v>152720</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199285</v>
+        <v>201119</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1731342559067554</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1499571832558349</v>
+        <v>0.1503232719314331</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1961579564461752</v>
+        <v>0.1979633891952711</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>375000</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>356525</v>
+        <v>356571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>392784</v>
+        <v>392726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7847872178378758</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7461231250504349</v>
+        <v>0.7462178786730842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8220037514011383</v>
+        <v>0.8218829472755703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>471</v>
@@ -836,19 +836,19 @@
         <v>465046</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>447950</v>
+        <v>449564</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>479348</v>
+        <v>479522</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8642315712201251</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8324598806026341</v>
+        <v>0.8354601665571011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8908085872562604</v>
+        <v>0.8911327111874552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>840</v>
@@ -857,19 +857,19 @@
         <v>840047</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>816656</v>
+        <v>814822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>863593</v>
+        <v>863221</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8268657440932446</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8038420435538247</v>
+        <v>0.802036610804729</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8500428167441652</v>
+        <v>0.849676728068567</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>149970</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128010</v>
+        <v>129969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>172572</v>
+        <v>174772</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2076784335464415</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1772682784222723</v>
+        <v>0.1799812466742948</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2389775567066199</v>
+        <v>0.2420233319787443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -982,19 +982,19 @@
         <v>97805</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78825</v>
+        <v>78439</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>116533</v>
+        <v>117396</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1216144031539996</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09801392422389679</v>
+        <v>0.0975332202836893</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1449008833050614</v>
+        <v>0.1459740036706035</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>232</v>
@@ -1003,19 +1003,19 @@
         <v>247776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>222196</v>
+        <v>219945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>280512</v>
+        <v>279183</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.162331843896366</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.145573254569739</v>
+        <v>0.1440984918051182</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1837787968814189</v>
+        <v>0.1829084690192592</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>572158</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>549556</v>
+        <v>547356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>594118</v>
+        <v>592159</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7923215664535584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7610224432933806</v>
+        <v>0.7579766680212557</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8227317215777286</v>
+        <v>0.8200187533257052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>665</v>
@@ -1053,19 +1053,19 @@
         <v>706421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>687693</v>
+        <v>686830</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>725401</v>
+        <v>725787</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8783855968460004</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8550991166949385</v>
+        <v>0.8540259963293964</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9019860757761031</v>
+        <v>0.9024667797163106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1192</v>
@@ -1074,19 +1074,19 @@
         <v>1278578</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1245842</v>
+        <v>1247171</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1304158</v>
+        <v>1306409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.837668156103634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8162212031185812</v>
+        <v>0.8170915309807408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.854426745430261</v>
+        <v>0.8559015081948818</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>109224</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91776</v>
+        <v>90273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128829</v>
+        <v>130125</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2003787039301887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1683680853619037</v>
+        <v>0.1656111706817688</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2363449725454963</v>
+        <v>0.2387231180954177</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -1199,19 +1199,19 @@
         <v>101922</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82686</v>
+        <v>85688</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>119110</v>
+        <v>120983</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1743418751359522</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1414385717196249</v>
+        <v>0.1465733987127321</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.203743328621926</v>
+        <v>0.2069473749315199</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>209</v>
@@ -1220,19 +1220,19 @@
         <v>211146</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184722</v>
+        <v>187501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>237410</v>
+        <v>238733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1869048699590267</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1635143797698232</v>
+        <v>0.1659746180399905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2101534867455954</v>
+        <v>0.2113242677724572</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>435865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>416260</v>
+        <v>414964</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453313</v>
+        <v>454816</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7996212960698112</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.763655027454504</v>
+        <v>0.7612768819045824</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8316319146380964</v>
+        <v>0.8343888293182312</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>491</v>
@@ -1270,19 +1270,19 @@
         <v>482687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>465499</v>
+        <v>463626</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>501923</v>
+        <v>498921</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8256581248640478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.796256671378074</v>
+        <v>0.7930526250684801</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8585614282803751</v>
+        <v>0.8534266012872678</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>902</v>
@@ -1291,19 +1291,19 @@
         <v>918552</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>892288</v>
+        <v>890965</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>944976</v>
+        <v>942197</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8130951300409733</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7898465132544047</v>
+        <v>0.7886757322275431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8364856202301771</v>
+        <v>0.8340253819600095</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>127661</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109644</v>
+        <v>109080</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>147492</v>
+        <v>148839</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.179883792087549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1544961507389873</v>
+        <v>0.1537019500971837</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2078258736795638</v>
+        <v>0.2097243872386078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -1416,19 +1416,19 @@
         <v>129777</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110278</v>
+        <v>109844</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151537</v>
+        <v>151506</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1594321390801283</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1354767706629471</v>
+        <v>0.1349437965363627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1861643418635363</v>
+        <v>0.186125766261512</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>262</v>
@@ -1437,19 +1437,19 @@
         <v>257439</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>231807</v>
+        <v>231242</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>286295</v>
+        <v>288020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1689579112506423</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1521355477736306</v>
+        <v>0.1517645451047888</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1878963801027428</v>
+        <v>0.1890282340797832</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>582027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>562196</v>
+        <v>560849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>600044</v>
+        <v>600608</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.820116207912451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7921741263204362</v>
+        <v>0.790275612761392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8455038492610127</v>
+        <v>0.846298049902816</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>657</v>
@@ -1487,19 +1487,19 @@
         <v>684221</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>662461</v>
+        <v>662492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>703720</v>
+        <v>704154</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8405678609198717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8138356581364636</v>
+        <v>0.813874233738488</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8645232293370528</v>
+        <v>0.8650562034636367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1273</v>
@@ -1508,19 +1508,19 @@
         <v>1266247</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1237391</v>
+        <v>1235666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1291879</v>
+        <v>1292444</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8310420887493577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.812103619897257</v>
+        <v>0.8109717659202168</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8478644522263693</v>
+        <v>0.8482354548952112</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>489693</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>454106</v>
+        <v>445001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>530016</v>
+        <v>528579</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1994884374704375</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1849912660879745</v>
+        <v>0.181282087866105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2159149883741565</v>
+        <v>0.2153297763123301</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>395</v>
@@ -1633,19 +1633,19 @@
         <v>402562</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>366476</v>
+        <v>365000</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>437345</v>
+        <v>442223</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1468703088849137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1337047962928535</v>
+        <v>0.1331661033531513</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.159560476134776</v>
+        <v>0.1613402266705299</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>879</v>
@@ -1654,19 +1654,19 @@
         <v>892255</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>836910</v>
+        <v>837254</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>946400</v>
+        <v>944921</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1717301817827289</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1610781420876225</v>
+        <v>0.1611443401465999</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1821513555475823</v>
+        <v>0.1818666092855431</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1965049</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1924726</v>
+        <v>1926163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2000636</v>
+        <v>2009741</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8005115625295626</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7840850116258432</v>
+        <v>0.7846702236876698</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.815008733912025</v>
+        <v>0.8187179121338949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2284</v>
@@ -1704,19 +1704,19 @@
         <v>2338375</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2303592</v>
+        <v>2298714</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2374461</v>
+        <v>2375937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8531296911150863</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.840439523865224</v>
+        <v>0.8386597733294703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8662952037071465</v>
+        <v>0.8668338966468488</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4207</v>
@@ -1725,19 +1725,19 @@
         <v>4303424</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4249279</v>
+        <v>4250758</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4358769</v>
+        <v>4358425</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8282698182172711</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8178486444524178</v>
+        <v>0.818133390714457</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8389218579123776</v>
+        <v>0.8388556598534002</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>186929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>163898</v>
+        <v>165805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>211152</v>
+        <v>211378</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3084881301341606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2704803185314899</v>
+        <v>0.2736280702769007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3484642624492226</v>
+        <v>0.3488367783653699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -2090,19 +2090,19 @@
         <v>112183</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93549</v>
+        <v>94626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133403</v>
+        <v>132850</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1764436340398376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1471358798028994</v>
+        <v>0.1488291818025893</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2098181785447115</v>
+        <v>0.2089485293421764</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>284</v>
@@ -2111,19 +2111,19 @@
         <v>299112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>271032</v>
+        <v>268141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332609</v>
+        <v>330684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2408787905766519</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2182659935680344</v>
+        <v>0.2159380080733183</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2678544957154822</v>
+        <v>0.2663045462606287</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>419022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394799</v>
+        <v>394573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>442053</v>
+        <v>440146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6915118698658393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6515357375507779</v>
+        <v>0.6511632216346304</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7295196814685101</v>
+        <v>0.7263719297230994</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>487</v>
@@ -2161,19 +2161,19 @@
         <v>523618</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>502398</v>
+        <v>502951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>542252</v>
+        <v>541175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8235563659601625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7901818214552886</v>
+        <v>0.7910514706578234</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8528641201971007</v>
+        <v>0.8511708181974107</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>889</v>
@@ -2182,19 +2182,19 @@
         <v>942640</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>909143</v>
+        <v>911068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>970720</v>
+        <v>973611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7591212094233482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7321455042845177</v>
+        <v>0.7336954537393713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7817340064319656</v>
+        <v>0.7840619919266815</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>227506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>201585</v>
+        <v>199977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>252250</v>
+        <v>255806</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.262406703053721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2325090043517313</v>
+        <v>0.2306546944685266</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2909461197279273</v>
+        <v>0.29504747252993</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -2307,19 +2307,19 @@
         <v>175747</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>150966</v>
+        <v>155108</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202215</v>
+        <v>203461</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1959862228127005</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1683520150426367</v>
+        <v>0.172971018937092</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2255024622660242</v>
+        <v>0.2268926601247664</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>371</v>
@@ -2328,19 +2328,19 @@
         <v>403253</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>368958</v>
+        <v>365931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>442089</v>
+        <v>438990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2286366209899496</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2091919675230845</v>
+        <v>0.2074760431883842</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2506557996512818</v>
+        <v>0.2488986791850916</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>639492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>614748</v>
+        <v>611192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>665413</v>
+        <v>667021</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7375932969462791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7090538802720726</v>
+        <v>0.70495252747007</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7674909956482686</v>
+        <v>0.7693453055314733</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>659</v>
@@ -2378,19 +2378,19 @@
         <v>720983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>694515</v>
+        <v>693269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>745764</v>
+        <v>741622</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8040137771872995</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7744975377339757</v>
+        <v>0.7731073398752336</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8316479849573634</v>
+        <v>0.827028981062908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1247</v>
@@ -2399,19 +2399,19 @@
         <v>1360475</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1321639</v>
+        <v>1324738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1394770</v>
+        <v>1397797</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7713633790100504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7493442003487183</v>
+        <v>0.7511013208149073</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7908080324769154</v>
+        <v>0.7925239568116158</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>157011</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136521</v>
+        <v>135239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181457</v>
+        <v>180828</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2468592145445671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2146441255345489</v>
+        <v>0.2126290680353314</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2852952291393063</v>
+        <v>0.2843059588341491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -2524,19 +2524,19 @@
         <v>106992</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88948</v>
+        <v>88266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127165</v>
+        <v>126963</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1576893633205391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1310955898911282</v>
+        <v>0.1300907313688612</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1874216995149165</v>
+        <v>0.1871235684217659</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>245</v>
@@ -2545,19 +2545,19 @@
         <v>264002</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>235460</v>
+        <v>233886</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>298208</v>
+        <v>296163</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2008340483998215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1791214086779067</v>
+        <v>0.1779239102661722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2268553572056165</v>
+        <v>0.2252998092359597</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>479022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454576</v>
+        <v>455205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499512</v>
+        <v>500794</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7531407854554329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7147047708606935</v>
+        <v>0.7156940411658509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7853558744654511</v>
+        <v>0.7873709319646686</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>514</v>
@@ -2595,19 +2595,19 @@
         <v>571505</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>551332</v>
+        <v>551534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>589549</v>
+        <v>590231</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8423106366794609</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8125783004850835</v>
+        <v>0.8128764315782341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8689044101088719</v>
+        <v>0.8699092686311388</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>952</v>
@@ -2616,19 +2616,19 @@
         <v>1050527</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1016321</v>
+        <v>1018366</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1079069</v>
+        <v>1080643</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7991659516001784</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7731446427943836</v>
+        <v>0.7747001907640402</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8208785913220933</v>
+        <v>0.8220760897338274</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>148752</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125483</v>
+        <v>128912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>170956</v>
+        <v>172837</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1846298822097495</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.155749066956186</v>
+        <v>0.1600046050666065</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2121899139603179</v>
+        <v>0.2145243693192459</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>148</v>
@@ -2741,19 +2741,19 @@
         <v>156943</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134172</v>
+        <v>134353</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>182654</v>
+        <v>180894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.167998894755256</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1436233456082647</v>
+        <v>0.1438167448949625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1955202274959035</v>
+        <v>0.1936365973512668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>288</v>
@@ -2762,19 +2762,19 @@
         <v>305695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>275308</v>
+        <v>276329</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>341428</v>
+        <v>339514</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1757001596468666</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1582346615670463</v>
+        <v>0.1588217284461663</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1962377624692494</v>
+        <v>0.1951378036921457</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>656924</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>634720</v>
+        <v>632839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>680193</v>
+        <v>676764</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8153701177902505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7878100860396821</v>
+        <v>0.785475630680754</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8442509330438138</v>
+        <v>0.8399953949333935</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>740</v>
@@ -2812,19 +2812,19 @@
         <v>777250</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>751539</v>
+        <v>753299</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>800021</v>
+        <v>799840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.832001105244744</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8044797725040964</v>
+        <v>0.8063634026487334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8563766543917354</v>
+        <v>0.8561832551050375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1374</v>
@@ -2833,19 +2833,19 @@
         <v>1434174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1398441</v>
+        <v>1400355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1464561</v>
+        <v>1463540</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8242998403531334</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8037622375307506</v>
+        <v>0.8048621963078543</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8417653384329538</v>
+        <v>0.8411782715538337</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>720197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>672605</v>
+        <v>674171</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>771564</v>
+        <v>769868</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2470949374470533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2307662041267554</v>
+        <v>0.2313034871831457</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2647185595867428</v>
+        <v>0.2641367180323813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>514</v>
@@ -2958,19 +2958,19 @@
         <v>551865</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>510450</v>
+        <v>510922</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>598233</v>
+        <v>597030</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1754614156441599</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1622938702937434</v>
+        <v>0.1624439416612224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1902036937245718</v>
+        <v>0.1898212078857305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1188</v>
@@ -2979,19 +2979,19 @@
         <v>1272062</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1209548</v>
+        <v>1205270</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1340557</v>
+        <v>1337420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2099154437925402</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1995993593062257</v>
+        <v>0.1988933383356389</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2212184333310712</v>
+        <v>0.2207007545965525</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2194462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2143095</v>
+        <v>2144791</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2242054</v>
+        <v>2240488</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7529050625529466</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.735281440413257</v>
+        <v>0.7358632819676187</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7692337958732443</v>
+        <v>0.7686965128168544</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2400</v>
@@ -3029,19 +3029,19 @@
         <v>2593356</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2546988</v>
+        <v>2548191</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2634771</v>
+        <v>2634299</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.82453858435584</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.809796306275428</v>
+        <v>0.8101787921142695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8377061297062566</v>
+        <v>0.8375560583387771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4462</v>
@@ -3050,19 +3050,19 @@
         <v>4787817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4719322</v>
+        <v>4722459</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4850331</v>
+        <v>4854609</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7900845562074599</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7787815666689287</v>
+        <v>0.7792992454034475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8004006406937744</v>
+        <v>0.8011066616643612</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>114480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97031</v>
+        <v>95377</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>135255</v>
+        <v>135298</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2180606286123828</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1848237693054536</v>
+        <v>0.1816727511577937</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.257632674540565</v>
+        <v>0.2577137737933547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -3415,19 +3415,19 @@
         <v>80023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64932</v>
+        <v>63966</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99595</v>
+        <v>97645</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1470031016176491</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1192814654637112</v>
+        <v>0.1175056236091179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1829568916545897</v>
+        <v>0.1793752251113402</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -3436,19 +3436,19 @@
         <v>194503</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>170058</v>
+        <v>170924</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>222643</v>
+        <v>221131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1818883150712229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1590284942806534</v>
+        <v>0.1598382146968617</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2082028133634838</v>
+        <v>0.2067887952669829</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>410513</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389738</v>
+        <v>389695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427962</v>
+        <v>429616</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7819393713876172</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.742367325459435</v>
+        <v>0.7422862262066453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8151762306945467</v>
+        <v>0.8183272488422055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>466</v>
@@ -3486,19 +3486,19 @@
         <v>464340</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>444768</v>
+        <v>446718</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>479431</v>
+        <v>480397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8529968983823509</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8170431083454102</v>
+        <v>0.8206247748886597</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8807185345362887</v>
+        <v>0.882494376390882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>864</v>
@@ -3507,19 +3507,19 @@
         <v>874853</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>846713</v>
+        <v>848225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>899298</v>
+        <v>898432</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8181116849287772</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7917971866365162</v>
+        <v>0.7932112047330173</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8409715057193465</v>
+        <v>0.8401617853031383</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>131014</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110318</v>
+        <v>111418</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153341</v>
+        <v>154797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1604885327389419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1351365997760234</v>
+        <v>0.1364841256167914</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1878377196300163</v>
+        <v>0.1896217227337069</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -3632,19 +3632,19 @@
         <v>112610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93049</v>
+        <v>94347</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>134619</v>
+        <v>136672</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.129979231753155</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1074001733259509</v>
+        <v>0.1088991442386469</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1553819696853438</v>
+        <v>0.1577521738381018</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>223</v>
@@ -3653,19 +3653,19 @@
         <v>243625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>213168</v>
+        <v>214278</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>274311</v>
+        <v>274517</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1447803580835523</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1266805174070195</v>
+        <v>0.1273403870860026</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1630166819793399</v>
+        <v>0.1631392168052823</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>685332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>663005</v>
+        <v>661549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>706028</v>
+        <v>704928</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8395114672610581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8121622803699835</v>
+        <v>0.8103782772662932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8648634002239766</v>
+        <v>0.8635158743832085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>716</v>
@@ -3703,19 +3703,19 @@
         <v>753763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>731754</v>
+        <v>729701</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>773324</v>
+        <v>772026</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.870020768246845</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8446180303146563</v>
+        <v>0.8422478261618983</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8925998266740492</v>
+        <v>0.8911008557613531</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1349</v>
@@ -3724,19 +3724,19 @@
         <v>1439094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1408408</v>
+        <v>1408202</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1469551</v>
+        <v>1468441</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8552196419164476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8369833180206601</v>
+        <v>0.8368607831947177</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8733194825929804</v>
+        <v>0.8726596129139974</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>104868</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84177</v>
+        <v>87669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125202</v>
+        <v>125412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1905443504388875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1529487088208658</v>
+        <v>0.1592946068132612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2274917406363591</v>
+        <v>0.2278734195495094</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -3849,19 +3849,19 @@
         <v>66979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53465</v>
+        <v>52867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84239</v>
+        <v>84572</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1155338366046401</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09222233789449946</v>
+        <v>0.09119172827834733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1453060381982308</v>
+        <v>0.1458800153077451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -3870,19 +3870,19 @@
         <v>171847</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149273</v>
+        <v>148448</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198065</v>
+        <v>197085</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1520641119952351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.132088126714287</v>
+        <v>0.1313581906249283</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1752633192297793</v>
+        <v>0.1743961230387657</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>445492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>425158</v>
+        <v>424948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>466183</v>
+        <v>462691</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8094556495611125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7725082593636409</v>
+        <v>0.7721265804504908</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8470512911791341</v>
+        <v>0.840705393186739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>490</v>
@@ -3920,19 +3920,19 @@
         <v>512759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>495499</v>
+        <v>495166</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>526273</v>
+        <v>526871</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8844661633953599</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.854693961801769</v>
+        <v>0.8541199846922544</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9077776621055005</v>
+        <v>0.9088082717216526</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>893</v>
@@ -3941,19 +3941,19 @@
         <v>958251</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>932033</v>
+        <v>933013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>980825</v>
+        <v>981650</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8479358880047648</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8247366807702207</v>
+        <v>0.8256038769612344</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.867911873285713</v>
+        <v>0.8686418093750718</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>125366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106572</v>
+        <v>104122</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146001</v>
+        <v>146368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1622573561338304</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1379329942045356</v>
+        <v>0.1347617837772026</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1889650312919534</v>
+        <v>0.1894400561580165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -4066,19 +4066,19 @@
         <v>113731</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92419</v>
+        <v>93473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133172</v>
+        <v>135044</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1298675851724023</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1055316646240288</v>
+        <v>0.1067350717039758</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1520663552487436</v>
+        <v>0.1542048082923611</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -4087,19 +4087,19 @@
         <v>239097</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>209623</v>
+        <v>211217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269384</v>
+        <v>270319</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1450494245895489</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1271687181110668</v>
+        <v>0.1281357537807662</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1634230927684006</v>
+        <v>0.1639906515923195</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>647269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>626634</v>
+        <v>626267</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>666063</v>
+        <v>668513</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8377426438661696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.811034968708047</v>
+        <v>0.8105599438419837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8620670057954655</v>
+        <v>0.8652382162227978</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>709</v>
@@ -4137,19 +4137,19 @@
         <v>762016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>742575</v>
+        <v>740703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>783328</v>
+        <v>782274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8701324148275977</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8479336447512564</v>
+        <v>0.8457951917076389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8944683353759713</v>
+        <v>0.8932649282960243</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1351</v>
@@ -4158,19 +4158,19 @@
         <v>1409285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1378998</v>
+        <v>1378063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1438759</v>
+        <v>1437165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8549505754104511</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8365769072315996</v>
+        <v>0.8360093484076805</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8728312818889332</v>
+        <v>0.8718642462192338</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>475728</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>442272</v>
+        <v>438722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>519856</v>
+        <v>515981</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1785542612612699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1659973409126756</v>
+        <v>0.1646649375421684</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1951168628032931</v>
+        <v>0.193662468053813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>345</v>
@@ -4283,19 +4283,19 @@
         <v>373344</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>336518</v>
+        <v>339540</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>408958</v>
+        <v>407086</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1302565464725484</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1174082264879975</v>
+        <v>0.1184625522440296</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1426818387007105</v>
+        <v>0.1420289076456202</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>799</v>
@@ -4304,19 +4304,19 @@
         <v>849072</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>792978</v>
+        <v>793652</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>904196</v>
+        <v>907452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1535238745563651</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1433812320449594</v>
+        <v>0.1435031771484751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1634911105436664</v>
+        <v>0.1640798322708391</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2188605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2144477</v>
+        <v>2148352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2222061</v>
+        <v>2225611</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8214457387387301</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8048831371967069</v>
+        <v>0.806337531946187</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8340026590873244</v>
+        <v>0.8353350624578315</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2381</v>
@@ -4354,19 +4354,19 @@
         <v>2492877</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2457263</v>
+        <v>2459135</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2529703</v>
+        <v>2526681</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8697434535274516</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8573181612992895</v>
+        <v>0.8579710923543798</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8825917735120025</v>
+        <v>0.8815374477559706</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4457</v>
@@ -4375,19 +4375,19 @@
         <v>4681482</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4626358</v>
+        <v>4623102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4737576</v>
+        <v>4736902</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8464761254436349</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8365088894563335</v>
+        <v>0.8359201677291607</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8566187679550405</v>
+        <v>0.8564968228515245</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>148971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>129215</v>
+        <v>126609</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175136</v>
+        <v>171489</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2258745143510821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1959201999118828</v>
+        <v>0.19196824195031</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2655459231498596</v>
+        <v>0.2600159699212049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>212</v>
@@ -4740,19 +4740,19 @@
         <v>107869</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94370</v>
+        <v>93238</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124431</v>
+        <v>122785</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1527568818653617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.133640915169809</v>
+        <v>0.1320377419954458</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1762110411867514</v>
+        <v>0.1738803751793354</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>393</v>
@@ -4761,19 +4761,19 @@
         <v>256840</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229181</v>
+        <v>230806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>285309</v>
+        <v>285134</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1880677614648698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1678147906757312</v>
+        <v>0.1690045111296456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2089131497636418</v>
+        <v>0.2087851179216425</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>510560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>484395</v>
+        <v>488042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>530316</v>
+        <v>532922</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7741254856489179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7344540768501405</v>
+        <v>0.739984030078795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8040798000881169</v>
+        <v>0.80803175804969</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>985</v>
@@ -4811,19 +4811,19 @@
         <v>598280</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>581718</v>
+        <v>583364</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>611779</v>
+        <v>612911</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8472431181346383</v>
+        <v>0.8472431181346382</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8237889588132484</v>
+        <v>0.8261196248206648</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.866359084830191</v>
+        <v>0.8679622580045547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1500</v>
@@ -4832,19 +4832,19 @@
         <v>1108840</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1080371</v>
+        <v>1080546</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1136499</v>
+        <v>1134874</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8119322385351303</v>
+        <v>0.8119322385351302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7910868502363589</v>
+        <v>0.7912148820783573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8321852093242688</v>
+        <v>0.8309954888703543</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>150425</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131337</v>
+        <v>127173</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>174075</v>
+        <v>173684</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1480294843898169</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1292461613796192</v>
+        <v>0.1251478484238453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1713037451236937</v>
+        <v>0.1709187293426634</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>206</v>
@@ -4957,19 +4957,19 @@
         <v>127498</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110850</v>
+        <v>111296</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145873</v>
+        <v>146193</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1216835605890867</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.105794428506904</v>
+        <v>0.106220046347774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1392201725759508</v>
+        <v>0.1395261748733078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>379</v>
@@ -4978,19 +4978,19 @@
         <v>277923</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>248703</v>
+        <v>250945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>307056</v>
+        <v>308194</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1346548141563466</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1204979567286297</v>
+        <v>0.121583907089476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1487700761644895</v>
+        <v>0.1493213345808592</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>865755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>842105</v>
+        <v>842496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>884843</v>
+        <v>889007</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8519705156101831</v>
+        <v>0.8519705156101832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8286962548763063</v>
+        <v>0.8290812706573365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8707538386203807</v>
+        <v>0.8748521515761546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1280</v>
@@ -5028,19 +5028,19 @@
         <v>920286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>901911</v>
+        <v>901591</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>936934</v>
+        <v>936488</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8783164394109133</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8607798274240492</v>
+        <v>0.8604738251266922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.894205571493096</v>
+        <v>0.8937799536522261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2043</v>
@@ -5049,19 +5049,19 @@
         <v>1786041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1756908</v>
+        <v>1755770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1815261</v>
+        <v>1813019</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8653451858436535</v>
+        <v>0.8653451858436534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8512299238355107</v>
+        <v>0.8506786654191411</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8795020432713705</v>
+        <v>0.878416092910524</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>91710</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74184</v>
+        <v>72865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>113344</v>
+        <v>113870</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1184876227190579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09584363357459363</v>
+        <v>0.09413991834578903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1464377090811369</v>
+        <v>0.1471167792526185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -5174,19 +5174,19 @@
         <v>69830</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56634</v>
+        <v>57494</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85227</v>
+        <v>87042</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0877989471382831</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07120710891454665</v>
+        <v>0.0722881099940471</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.107156712022943</v>
+        <v>0.1094390947671403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -5195,19 +5195,19 @@
         <v>161541</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140392</v>
+        <v>137556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189897</v>
+        <v>187288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1029346552985705</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08945863893026482</v>
+        <v>0.08765135955653397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1210036514351419</v>
+        <v>0.119340871964589</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>682298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>660664</v>
+        <v>660138</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699824</v>
+        <v>701143</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.881512377280942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.853562290918863</v>
+        <v>0.8528832207473815</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9041563664254063</v>
+        <v>0.9058600816542108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>930</v>
@@ -5245,19 +5245,19 @@
         <v>725515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>710118</v>
+        <v>708303</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>738711</v>
+        <v>737851</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9122010528617168</v>
+        <v>0.912201052861717</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8928432879770567</v>
+        <v>0.8905609052328598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9287928910854533</v>
+        <v>0.9277118900059529</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1501</v>
@@ -5266,19 +5266,19 @@
         <v>1407812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1379456</v>
+        <v>1382065</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1428961</v>
+        <v>1431797</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8970653447014295</v>
+        <v>0.8970653447014294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.878996348564858</v>
+        <v>0.880659128035411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9105413610697353</v>
+        <v>0.912348640443466</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>164811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>143509</v>
+        <v>139911</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>192605</v>
+        <v>189122</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1740785684751517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1515789655037152</v>
+        <v>0.1477783354639092</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2034356600444322</v>
+        <v>0.1997574127743606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>172</v>
@@ -5391,19 +5391,19 @@
         <v>111918</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>95086</v>
+        <v>96448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128507</v>
+        <v>131376</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.103996472857906</v>
+        <v>0.1039964728579061</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08835608564171442</v>
+        <v>0.08962179900859989</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1194117691105579</v>
+        <v>0.1220769564012467</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>348</v>
@@ -5412,19 +5412,19 @@
         <v>276729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>250853</v>
+        <v>245066</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>305568</v>
+        <v>305969</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1367958972386399</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1240047783651734</v>
+        <v>0.1211440854697047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1510520153469897</v>
+        <v>0.1512502254735691</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>781949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>754155</v>
+        <v>757638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>803251</v>
+        <v>806849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8259214315248483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7965643399555679</v>
+        <v>0.8002425872256392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8484210344962847</v>
+        <v>0.8522216645360905</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1338</v>
@@ -5462,19 +5462,19 @@
         <v>964252</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>947663</v>
+        <v>944794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>981084</v>
+        <v>979722</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8960035271420939</v>
+        <v>0.896003527142094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8805882308894418</v>
+        <v>0.8779230435987533</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9116439143582855</v>
+        <v>0.9103782009914</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2127</v>
@@ -5483,19 +5483,19 @@
         <v>1746201</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1717362</v>
+        <v>1716961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1772077</v>
+        <v>1777864</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8632041027613602</v>
+        <v>0.8632041027613603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8489479846530104</v>
+        <v>0.848749774526431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8759952216348269</v>
+        <v>0.8788559145302953</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>555917</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>513020</v>
+        <v>511926</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>600557</v>
+        <v>606991</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1636744613717</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1510447002460023</v>
+        <v>0.1507225441675172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.176817551501335</v>
+        <v>0.1787117896407493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>684</v>
@@ -5608,19 +5608,19 @@
         <v>417116</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>387219</v>
+        <v>385018</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>453430</v>
+        <v>450589</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.115052132409405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1068058734028801</v>
+        <v>0.1061986092366892</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1250685676528706</v>
+        <v>0.1242849398652381</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1298</v>
@@ -5629,19 +5629,19 @@
         <v>973032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>921430</v>
+        <v>921130</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1032799</v>
+        <v>1028680</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1385705656590152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1312218907884132</v>
+        <v>0.131179106066219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1470819403146666</v>
+        <v>0.1464954618856397</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2840562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2795922</v>
+        <v>2789488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2883459</v>
+        <v>2884553</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8363255386282998</v>
+        <v>0.8363255386282999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8231824484986651</v>
+        <v>0.8212882103592505</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8489552997539976</v>
+        <v>0.8492774558324828</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4533</v>
@@ -5679,19 +5679,19 @@
         <v>3208332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3172018</v>
+        <v>3174859</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3238229</v>
+        <v>3240430</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.884947867590595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8749314323471291</v>
+        <v>0.8757150601347619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8931941265971194</v>
+        <v>0.8938013907633109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7171</v>
@@ -5700,19 +5700,19 @@
         <v>6048894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5989127</v>
+        <v>5993246</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6100496</v>
+        <v>6100796</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8614294343409848</v>
+        <v>0.8614294343409847</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8529180596853334</v>
+        <v>0.8535045381143602</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8687781092115867</v>
+        <v>0.8688208939337809</v>
       </c>
     </row>
     <row r="18">
